--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_isolated.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_3_bus_isolated.xlsx
@@ -749,22 +749,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9717494206873249</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.952631548051342</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>7.416816313984696E-06</v>
+        <v>0.4711324625045243</v>
       </c>
       <c r="P3">
-        <v>0.9526244159516865</v>
+        <v>0.8867526821368239</v>
       </c>
       <c r="Q3">
-        <v>-1.568679042739308E-06</v>
+        <v>11.70358232174643</v>
       </c>
       <c r="R3">
-        <v>164.0730406511418</v>
+        <v>-113.1797985005417</v>
       </c>
       <c r="S3">
-        <v>-179.9998791575</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315480602657</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>7.416837792952212E-06</v>
+        <v>0.2355662312557468</v>
       </c>
       <c r="P4">
-        <v>0.9526244159427627</v>
+        <v>0.9127115190423145</v>
       </c>
       <c r="Q4">
-        <v>-1.569152070094977E-06</v>
+        <v>6.185827764751275</v>
       </c>
       <c r="R4">
-        <v>164.0729616362817</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>-179.999879157027</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -893,55 +893,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.995319656322863</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.995319656322863</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>34.58697219773964</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.58697219773964</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>0.9526315480870373</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
-        <v>7.416902229939246E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526244159159913</v>
+        <v>0.9526279648061713</v>
       </c>
       <c r="Q5">
-        <v>-1.570571178407137E-06</v>
+        <v>-1.474211006865218E-11</v>
       </c>
       <c r="R5">
-        <v>164.0727245908423</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998791556078</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -985,22 +985,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952631548051342</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>7.416816314037465E-06</v>
+        <v>0.2355662312598132</v>
       </c>
       <c r="P6">
-        <v>0.9526244159516866</v>
+        <v>0.9127115190507494</v>
       </c>
       <c r="Q6">
-        <v>-1.568679044729985E-06</v>
+        <v>6.185827765114817</v>
       </c>
       <c r="R6">
-        <v>164.0730406497134</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>-179.9998791575</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
@@ -1116,22 +1116,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.097913442505985</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.038199430945095</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.071688005270969</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.20385326919862</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.64835645787062</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.0415426789638</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526315479000901</v>
+        <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>7.416442415944267E-06</v>
+        <v>0.8010472659662116</v>
       </c>
       <c r="P3">
-        <v>0.9526244161029389</v>
+        <v>0.9498440590705094</v>
       </c>
       <c r="Q3">
-        <v>-1.559582279045121E-06</v>
+        <v>20.60981428630313</v>
       </c>
       <c r="R3">
-        <v>164.0746465896747</v>
+        <v>-102.5423331070932</v>
       </c>
       <c r="S3">
-        <v>-179.9998791665969</v>
+        <v>155.6939771729496</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1234,22 +1234,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315479090139</v>
+        <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>7.416463894704314E-06</v>
+        <v>0.6778116409140653</v>
       </c>
       <c r="P4">
-        <v>0.952624416094015</v>
+        <v>0.9365579876248711</v>
       </c>
       <c r="Q4">
-        <v>-1.560055310252721E-06</v>
+        <v>17.79481892925097</v>
       </c>
       <c r="R4">
-        <v>164.0745675658397</v>
+        <v>-102.9968045963019</v>
       </c>
       <c r="S4">
-        <v>-179.9998791661239</v>
+        <v>159.3539935570793</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1260,55 +1260,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.568752063862715</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.568752063862715</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18.11438852725838</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18.11438852725838</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>0.9526315479357853</v>
+        <v>1.053149057115868</v>
       </c>
       <c r="O5">
-        <v>7.416528330752034E-06</v>
+        <v>0.554637611178076</v>
       </c>
       <c r="P5">
-        <v>0.9526244160672436</v>
+        <v>0.9271939290302874</v>
       </c>
       <c r="Q5">
-        <v>-1.561474414709746E-06</v>
+        <v>14.82588342075277</v>
       </c>
       <c r="R5">
-        <v>164.0743304948375</v>
+        <v>-103.653192268985</v>
       </c>
       <c r="S5">
-        <v>-179.9998791647048</v>
+        <v>163.1035456589491</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1352,22 +1352,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315479000902</v>
+        <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>7.416442416041081E-06</v>
+        <v>0.6778116409156857</v>
       </c>
       <c r="P6">
-        <v>0.9526244161029389</v>
+        <v>0.9365579876298999</v>
       </c>
       <c r="Q6">
-        <v>-1.559582281031953E-06</v>
+        <v>17.79481892942265</v>
       </c>
       <c r="R6">
-        <v>164.0746465888581</v>
+        <v>-102.9968045954625</v>
       </c>
       <c r="S6">
-        <v>-179.9998791665969</v>
+        <v>159.3539935570706</v>
       </c>
     </row>
   </sheetData>
@@ -1483,22 +1483,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.097913442505985</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.038199430945095</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.071688005270969</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.20385326919862</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.64835645787062</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>151.0415426789638</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526315479000901</v>
+        <v>1.110691092641168</v>
       </c>
       <c r="O3">
-        <v>7.416442415944267E-06</v>
+        <v>0.8010472659662116</v>
       </c>
       <c r="P3">
-        <v>0.9526244161029389</v>
+        <v>0.9498440590705094</v>
       </c>
       <c r="Q3">
-        <v>-1.559582279045121E-06</v>
+        <v>20.60981428630313</v>
       </c>
       <c r="R3">
-        <v>164.0746465896747</v>
+        <v>-102.5423331070932</v>
       </c>
       <c r="S3">
-        <v>-179.9998791665969</v>
+        <v>155.6939771729496</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1601,22 +1601,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315479090139</v>
+        <v>1.08054316191597</v>
       </c>
       <c r="O4">
-        <v>7.416463894704314E-06</v>
+        <v>0.6778116409140653</v>
       </c>
       <c r="P4">
-        <v>0.952624416094015</v>
+        <v>0.9365579876248711</v>
       </c>
       <c r="Q4">
-        <v>-1.560055310252721E-06</v>
+        <v>17.79481892925097</v>
       </c>
       <c r="R4">
-        <v>164.0745675658397</v>
+        <v>-102.9968045963019</v>
       </c>
       <c r="S4">
-        <v>-179.9998791661239</v>
+        <v>159.3539935570793</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1627,55 +1627,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.568752063862715</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.568752063862715</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18.11438852725838</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>18.11438852725838</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>0.9526315479357853</v>
+        <v>1.053149057115868</v>
       </c>
       <c r="O5">
-        <v>7.416528330752034E-06</v>
+        <v>0.554637611178076</v>
       </c>
       <c r="P5">
-        <v>0.9526244160672436</v>
+        <v>0.9271939290302874</v>
       </c>
       <c r="Q5">
-        <v>-1.561474414709746E-06</v>
+        <v>14.82588342075277</v>
       </c>
       <c r="R5">
-        <v>164.0743304948375</v>
+        <v>-103.653192268985</v>
       </c>
       <c r="S5">
-        <v>-179.9998791647048</v>
+        <v>163.1035456589491</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1719,22 +1719,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526315479000902</v>
+        <v>1.08054316191212</v>
       </c>
       <c r="O6">
-        <v>7.416442416041081E-06</v>
+        <v>0.6778116409156857</v>
       </c>
       <c r="P6">
-        <v>0.9526244161029389</v>
+        <v>0.9365579876298999</v>
       </c>
       <c r="Q6">
-        <v>-1.559582281031953E-06</v>
+        <v>17.79481892942265</v>
       </c>
       <c r="R6">
-        <v>164.0746465888581</v>
+        <v>-102.9968045954625</v>
       </c>
       <c r="S6">
-        <v>-179.9998791665969</v>
+        <v>159.3539935570706</v>
       </c>
     </row>
   </sheetData>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9962683121728335</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8925077601169362</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9517008464337954</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.56536361475429</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.21942694842278</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270206752975</v>
+        <v>1.0299292170325</v>
       </c>
       <c r="O3">
-        <v>6.863489961848306E-06</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
-        <v>0.866026386878173</v>
+        <v>0.7706324860879328</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987077929894229</v>
+        <v>13.65879647337793</v>
       </c>
       <c r="R3">
-        <v>95.29835561949429</v>
+        <v>-118.9936572386324</v>
       </c>
       <c r="S3">
-        <v>-179.999846563823</v>
+        <v>161.6033321423727</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270206834102</v>
+        <v>0.941301502417299</v>
       </c>
       <c r="O4">
-        <v>6.863518798873622E-06</v>
+        <v>0.2780545096809859</v>
       </c>
       <c r="P4">
-        <v>0.8660263868700606</v>
+        <v>0.8078419627250792</v>
       </c>
       <c r="Q4">
-        <v>-0.0002987087012253391</v>
+        <v>7.42258526018255</v>
       </c>
       <c r="R4">
-        <v>95.2984693213043</v>
+        <v>-118.9936572335692</v>
       </c>
       <c r="S4">
-        <v>-179.9998465629147</v>
+        <v>171.3424305981764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1994,55 +1994,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.397643038417542</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.397643038417542</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27.68559707302</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>27.68559707302</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>0.8660270207077478</v>
+        <v>0.8660254037887587</v>
       </c>
       <c r="O5">
-        <v>6.863605310082148E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660263868457232</v>
+        <v>0.8660254037891308</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987114259251908</v>
+        <v>1.936431846920655E-10</v>
       </c>
       <c r="R5">
-        <v>95.29881041833781</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.99984656019</v>
+        <v>179.9999999997985</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270206752975</v>
+        <v>0.9413015024105774</v>
       </c>
       <c r="O6">
-        <v>6.86348996191805E-06</v>
+        <v>0.278054509689502</v>
       </c>
       <c r="P6">
-        <v>0.866026386878173</v>
+        <v>0.8078419627343771</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987077929906278</v>
+        <v>7.422585260806452</v>
       </c>
       <c r="R6">
-        <v>95.29835561997767</v>
+        <v>-118.9936572288322</v>
       </c>
       <c r="S6">
-        <v>-179.999846563823</v>
+        <v>171.34243059761</v>
       </c>
     </row>
   </sheetData>
@@ -2217,22 +2217,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9962683121728335</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8925077601169362</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9517008464337954</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.56536361475429</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.21942694842278</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.0849854380986</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2276,22 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270206752975</v>
+        <v>1.0299292170325</v>
       </c>
       <c r="O3">
-        <v>6.863489961848306E-06</v>
+        <v>0.5561090193399916</v>
       </c>
       <c r="P3">
-        <v>0.866026386878173</v>
+        <v>0.7706324860879328</v>
       </c>
       <c r="Q3">
-        <v>-0.0002987077929894229</v>
+        <v>13.65879647337793</v>
       </c>
       <c r="R3">
-        <v>95.29835561949429</v>
+        <v>-118.9936572386324</v>
       </c>
       <c r="S3">
-        <v>-179.999846563823</v>
+        <v>161.6033321423727</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2335,22 +2335,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270206834102</v>
+        <v>0.941301502417299</v>
       </c>
       <c r="O4">
-        <v>6.863518798873622E-06</v>
+        <v>0.2780545096809859</v>
       </c>
       <c r="P4">
-        <v>0.8660263868700606</v>
+        <v>0.8078419627250792</v>
       </c>
       <c r="Q4">
-        <v>-0.0002987087012253391</v>
+        <v>7.42258526018255</v>
       </c>
       <c r="R4">
-        <v>95.2984693213043</v>
+        <v>-118.9936572335692</v>
       </c>
       <c r="S4">
-        <v>-179.9998465629147</v>
+        <v>171.3424305981764</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2361,55 +2361,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.397643038417542</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.397643038417542</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27.68559707302</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>27.68559707302</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>0.8660270207077478</v>
+        <v>0.8660254037887587</v>
       </c>
       <c r="O5">
-        <v>6.863605310082148E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660263868457232</v>
+        <v>0.8660254037891308</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987114259251908</v>
+        <v>1.936431846920655E-10</v>
       </c>
       <c r="R5">
-        <v>95.29881041833781</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.99984656019</v>
+        <v>179.9999999997985</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2453,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270206752975</v>
+        <v>0.9413015024105774</v>
       </c>
       <c r="O6">
-        <v>6.86348996191805E-06</v>
+        <v>0.278054509689502</v>
       </c>
       <c r="P6">
-        <v>0.866026386878173</v>
+        <v>0.8078419627343771</v>
       </c>
       <c r="Q6">
-        <v>-0.0002987077929906278</v>
+        <v>7.422585260806452</v>
       </c>
       <c r="R6">
-        <v>95.29835561997767</v>
+        <v>-118.9936572288322</v>
       </c>
       <c r="S6">
-        <v>-179.999846563823</v>
+        <v>171.34243059761</v>
       </c>
     </row>
   </sheetData>
@@ -2584,22 +2584,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001331894669825</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9447857350273365</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9714136499339264</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.12895287789162</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.06695043634008</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.9234419840479</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270205377967</v>
+        <v>1.024295523193718</v>
       </c>
       <c r="O3">
-        <v>6.863190745338782E-06</v>
+        <v>0.7601105130307679</v>
       </c>
       <c r="P3">
-        <v>0.8660263870156735</v>
+        <v>0.8600596939664573</v>
       </c>
       <c r="Q3">
-        <v>-0.0002986986960391877</v>
+        <v>21.13973208229472</v>
       </c>
       <c r="R3">
-        <v>95.29628164529849</v>
+        <v>-103.5956248909721</v>
       </c>
       <c r="S3">
-        <v>-179.9998465729199</v>
+        <v>154.5634239344227</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2702,22 +2702,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270205459092</v>
+        <v>0.9736886975942201</v>
       </c>
       <c r="O4">
-        <v>6.863219581807229E-06</v>
+        <v>0.6105905023675677</v>
       </c>
       <c r="P4">
-        <v>0.866026387007561</v>
+        <v>0.8592675374866863</v>
       </c>
       <c r="Q4">
-        <v>-0.0002986996042708649</v>
+        <v>17.89765854075598</v>
       </c>
       <c r="R4">
-        <v>95.29639536082907</v>
+        <v>-101.438234042627</v>
       </c>
       <c r="S4">
-        <v>-179.9998465720117</v>
+        <v>159.6202630074795</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2728,55 +2728,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.308134192175114</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.308134192175114</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15.10503255976911</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15.10503255976911</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>0.8660270205702471</v>
+        <v>0.9265339329004399</v>
       </c>
       <c r="O5">
-        <v>6.863306091536664E-06</v>
+        <v>0.4624952789982449</v>
       </c>
       <c r="P5">
-        <v>0.8660263869832234</v>
+        <v>0.8651507456751683</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987023289749586</v>
+        <v>14.31307774380575</v>
       </c>
       <c r="R5">
-        <v>95.29673649887512</v>
+        <v>-97.89113682127662</v>
       </c>
       <c r="S5">
-        <v>-179.999846569287</v>
+        <v>164.647267868448</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2820,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270205377967</v>
+        <v>0.9736886975909307</v>
       </c>
       <c r="O6">
-        <v>6.863190745274957E-06</v>
+        <v>0.6105905023744963</v>
       </c>
       <c r="P6">
-        <v>0.8660263870156735</v>
+        <v>0.8592675374928755</v>
       </c>
       <c r="Q6">
-        <v>-0.000298698696036154</v>
+        <v>17.8976585410986</v>
       </c>
       <c r="R6">
-        <v>95.29628164534789</v>
+        <v>-101.4382340415534</v>
       </c>
       <c r="S6">
-        <v>-179.9998465729199</v>
+        <v>159.6202630073105</v>
       </c>
     </row>
   </sheetData>
@@ -2951,22 +2951,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.001331894669825</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9447857350273365</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9714136499339264</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.12895287789162</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-92.06695043634008</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.9234419840479</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3010,22 +3010,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660270205377967</v>
+        <v>1.024295523193718</v>
       </c>
       <c r="O3">
-        <v>6.863190745338782E-06</v>
+        <v>0.7601105130307679</v>
       </c>
       <c r="P3">
-        <v>0.8660263870156735</v>
+        <v>0.8600596939664573</v>
       </c>
       <c r="Q3">
-        <v>-0.0002986986960391877</v>
+        <v>21.13973208229472</v>
       </c>
       <c r="R3">
-        <v>95.29628164529849</v>
+        <v>-103.5956248909721</v>
       </c>
       <c r="S3">
-        <v>-179.9998465729199</v>
+        <v>154.5634239344227</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3069,22 +3069,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660270205459092</v>
+        <v>0.9736886975942201</v>
       </c>
       <c r="O4">
-        <v>6.863219581807229E-06</v>
+        <v>0.6105905023675677</v>
       </c>
       <c r="P4">
-        <v>0.866026387007561</v>
+        <v>0.8592675374866863</v>
       </c>
       <c r="Q4">
-        <v>-0.0002986996042708649</v>
+        <v>17.89765854075598</v>
       </c>
       <c r="R4">
-        <v>95.29639536082907</v>
+        <v>-101.438234042627</v>
       </c>
       <c r="S4">
-        <v>-179.9998465720117</v>
+        <v>159.6202630074795</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3095,55 +3095,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.308134192175114</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.308134192175114</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15.10503255976911</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15.10503255976911</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>0.8660270205702471</v>
+        <v>0.9265339329004399</v>
       </c>
       <c r="O5">
-        <v>6.863306091536664E-06</v>
+        <v>0.4624952789982449</v>
       </c>
       <c r="P5">
-        <v>0.8660263869832234</v>
+        <v>0.8651507456751683</v>
       </c>
       <c r="Q5">
-        <v>-0.0002987023289749586</v>
+        <v>14.31307774380575</v>
       </c>
       <c r="R5">
-        <v>95.29673649887512</v>
+        <v>-97.89113682127662</v>
       </c>
       <c r="S5">
-        <v>-179.999846569287</v>
+        <v>164.647267868448</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3187,22 +3187,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660270205377967</v>
+        <v>0.9736886975909307</v>
       </c>
       <c r="O6">
-        <v>6.863190745274957E-06</v>
+        <v>0.6105905023744963</v>
       </c>
       <c r="P6">
-        <v>0.8660263870156735</v>
+        <v>0.8592675374928755</v>
       </c>
       <c r="Q6">
-        <v>-0.000298698696036154</v>
+        <v>17.8976585410986</v>
       </c>
       <c r="R6">
-        <v>95.29628164534789</v>
+        <v>-101.4382340415534</v>
       </c>
       <c r="S6">
-        <v>-179.9998465729199</v>
+        <v>159.6202630073105</v>
       </c>
     </row>
   </sheetData>
@@ -3318,22 +3318,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100880546910692</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.100995982616605</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96660403920027</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0229786885682</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3377,22 +3377,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999520777745</v>
+        <v>1.104800245254776</v>
       </c>
       <c r="O3">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>0.5500000333063761</v>
+        <v>1.105103249252676</v>
       </c>
       <c r="Q3">
-        <v>89.99981982555929</v>
+        <v>29.83817767433141</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>89.99981987277515</v>
+        <v>150.1344453629891</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3436,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999520623181</v>
+        <v>1.105416167614796</v>
       </c>
       <c r="O4">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P4">
-        <v>0.5500000333218327</v>
+        <v>1.107008575961216</v>
       </c>
       <c r="Q4">
-        <v>89.99981982697838</v>
+        <v>29.74241024066617</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>89.99981987135604</v>
+        <v>150.1136587318819</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.04951691379863837</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5717720702216672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3477,40 +3477,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.772281505167484</v>
+        <v>2.773381116452584</v>
       </c>
       <c r="I5">
-        <v>-776.4992320298916</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090933494.82663</v>
+        <v>1.147731926989037</v>
       </c>
       <c r="K5">
-        <v>-13813.34314886481</v>
+        <v>3.488438701412483</v>
       </c>
       <c r="L5">
-        <v>9090932858.978199</v>
+        <v>1.14773192718175</v>
       </c>
       <c r="M5">
-        <v>-70981.02528210729</v>
+        <v>3.48843870141608</v>
       </c>
       <c r="N5">
-        <v>0.5499999520159488</v>
+        <v>1.106035174807535</v>
       </c>
       <c r="O5">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P5">
-        <v>0.5500000333682019</v>
+        <v>1.108914047874004</v>
       </c>
       <c r="Q5">
-        <v>89.9998198312357</v>
+        <v>29.64674973501614</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>89.99981986709872</v>
+        <v>150.0929435343412</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999520777745</v>
+        <v>1.105416167614639</v>
       </c>
       <c r="O6">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P6">
-        <v>0.550000033306376</v>
+        <v>1.107008575961151</v>
       </c>
       <c r="Q6">
-        <v>89.99981982555927</v>
+        <v>29.74241024066528</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>89.99981987277515</v>
+        <v>150.1136587318745</v>
       </c>
     </row>
   </sheetData>
@@ -3685,22 +3685,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100880546910692</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.100995982616605</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96660403920027</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0229786885682</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3744,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999520777745</v>
+        <v>1.104800245254776</v>
       </c>
       <c r="O3">
-        <v>1.099999985384151</v>
+        <v>1.100000023841816</v>
       </c>
       <c r="P3">
-        <v>0.5500000333063761</v>
+        <v>1.105103249252676</v>
       </c>
       <c r="Q3">
-        <v>89.99981982555929</v>
+        <v>29.83817767433141</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>89.99981987277515</v>
+        <v>150.1344453629891</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3803,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999520623181</v>
+        <v>1.105416167614796</v>
       </c>
       <c r="O4">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P4">
-        <v>0.5500000333218327</v>
+        <v>1.107008575961216</v>
       </c>
       <c r="Q4">
-        <v>89.99981982697838</v>
+        <v>29.74241024066617</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>89.99981987135604</v>
+        <v>150.1136587318819</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,7 +3826,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.04951691379863837</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5717720702216672</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3844,40 +3844,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.772281505167484</v>
+        <v>2.773381116452584</v>
       </c>
       <c r="I5">
-        <v>-776.4992320298916</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090933494.82663</v>
+        <v>1.147731926989037</v>
       </c>
       <c r="K5">
-        <v>-13813.34314886481</v>
+        <v>3.488438701412483</v>
       </c>
       <c r="L5">
-        <v>9090932858.978199</v>
+        <v>1.14773192718175</v>
       </c>
       <c r="M5">
-        <v>-70981.02528210729</v>
+        <v>3.48843870141608</v>
       </c>
       <c r="N5">
-        <v>0.5499999520159488</v>
+        <v>1.106035174807535</v>
       </c>
       <c r="O5">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P5">
-        <v>0.5500000333682019</v>
+        <v>1.108914047874004</v>
       </c>
       <c r="Q5">
-        <v>89.9998198312357</v>
+        <v>29.64674973501614</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>89.99981986709872</v>
+        <v>150.0929435343412</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3921,22 +3921,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999520777745</v>
+        <v>1.105416167614639</v>
       </c>
       <c r="O6">
-        <v>1.099999985384151</v>
+        <v>1.100000023841815</v>
       </c>
       <c r="P6">
-        <v>0.550000033306376</v>
+        <v>1.107008575961151</v>
       </c>
       <c r="Q6">
-        <v>89.99981982555927</v>
+        <v>29.74241024066528</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082549</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>89.99981987277515</v>
+        <v>150.1136587318745</v>
       </c>
     </row>
   </sheetData>
@@ -4052,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100884502170565</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101024241183029</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96502393833756</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0223655231195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4111,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999528636949</v>
+        <v>1.104829805806766</v>
       </c>
       <c r="O3">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>0.5500000325204549</v>
+        <v>1.105254635432752</v>
       </c>
       <c r="Q3">
-        <v>89.99981974368852</v>
+        <v>29.82998050535502</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082523</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99981995464641</v>
+        <v>150.1316343290133</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999528482382</v>
+        <v>1.105420279615376</v>
       </c>
       <c r="O4">
-        <v>1.09999998538415</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P4">
-        <v>0.5500000325359115</v>
+        <v>1.107188654434994</v>
       </c>
       <c r="Q4">
-        <v>89.99981974510762</v>
+        <v>29.7317164264222</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082523</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>89.9998199532273</v>
+        <v>150.1084432955002</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,7 +4193,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.05048455924652814</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5829454774180527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4211,40 +4211,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.772281505167484</v>
+        <v>2.773381116452584</v>
       </c>
       <c r="I5">
-        <v>-776.4992320298916</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090933494.82663</v>
+        <v>1.147731926989037</v>
       </c>
       <c r="K5">
-        <v>-13813.34314886481</v>
+        <v>3.488438701412483</v>
       </c>
       <c r="L5">
-        <v>9090932858.978199</v>
+        <v>1.14773192718175</v>
       </c>
       <c r="M5">
-        <v>-70981.02528210729</v>
+        <v>3.48843870141608</v>
       </c>
       <c r="N5">
-        <v>0.549999952801869</v>
+        <v>1.106014001357046</v>
       </c>
       <c r="O5">
-        <v>1.09999998538415</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P5">
-        <v>0.5500000325822807</v>
+        <v>1.109122854196106</v>
       </c>
       <c r="Q5">
-        <v>89.99981974936495</v>
+        <v>29.63355755773126</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082523</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>89.99981994896997</v>
+        <v>150.0853331439312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4288,22 +4288,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999528636946</v>
+        <v>1.105420279615215</v>
       </c>
       <c r="O6">
-        <v>1.09999998538415</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P6">
-        <v>0.5500000325204549</v>
+        <v>1.107188654434925</v>
       </c>
       <c r="Q6">
-        <v>89.99981974368853</v>
+        <v>29.73171642642145</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082523</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>89.9998199546464</v>
+        <v>150.1084432954927</v>
       </c>
     </row>
   </sheetData>
@@ -4570,22 +4570,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100884502170565</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.101024241183029</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>29.96502393833756</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0223655231195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4629,22 +4629,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5499999528636949</v>
+        <v>1.104829805806766</v>
       </c>
       <c r="O3">
-        <v>1.09999998538415</v>
+        <v>1.100000023841821</v>
       </c>
       <c r="P3">
-        <v>0.5500000325204549</v>
+        <v>1.105254635432752</v>
       </c>
       <c r="Q3">
-        <v>89.99981974368852</v>
+        <v>29.82998050535502</v>
       </c>
       <c r="R3">
-        <v>-90.00018015082523</v>
+        <v>-89.99999999999801</v>
       </c>
       <c r="S3">
-        <v>89.99981995464641</v>
+        <v>150.1316343290133</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4688,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5499999528482382</v>
+        <v>1.105420279615376</v>
       </c>
       <c r="O4">
-        <v>1.09999998538415</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P4">
-        <v>0.5500000325359115</v>
+        <v>1.107188654434994</v>
       </c>
       <c r="Q4">
-        <v>89.99981974510762</v>
+        <v>29.7317164264222</v>
       </c>
       <c r="R4">
-        <v>-90.00018015082523</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>89.9998199532273</v>
+        <v>150.1084432955002</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.05048455924652814</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5829454774180527</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4729,40 +4729,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.772281505167484</v>
+        <v>2.773381116452584</v>
       </c>
       <c r="I5">
-        <v>-776.4992320298916</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090933494.82663</v>
+        <v>1.147731926989037</v>
       </c>
       <c r="K5">
-        <v>-13813.34314886481</v>
+        <v>3.488438701412483</v>
       </c>
       <c r="L5">
-        <v>9090932858.978199</v>
+        <v>1.14773192718175</v>
       </c>
       <c r="M5">
-        <v>-70981.02528210729</v>
+        <v>3.48843870141608</v>
       </c>
       <c r="N5">
-        <v>0.549999952801869</v>
+        <v>1.106014001357046</v>
       </c>
       <c r="O5">
-        <v>1.09999998538415</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P5">
-        <v>0.5500000325822807</v>
+        <v>1.109122854196106</v>
       </c>
       <c r="Q5">
-        <v>89.99981974936495</v>
+        <v>29.63355755773126</v>
       </c>
       <c r="R5">
-        <v>-90.00018015082523</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>89.99981994896997</v>
+        <v>150.0853331439312</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4806,22 +4806,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5499999528636946</v>
+        <v>1.105420279615215</v>
       </c>
       <c r="O6">
-        <v>1.09999998538415</v>
+        <v>1.10000002384182</v>
       </c>
       <c r="P6">
-        <v>0.5500000325204549</v>
+        <v>1.107188654434925</v>
       </c>
       <c r="Q6">
-        <v>89.99981974368853</v>
+        <v>29.73171642642145</v>
       </c>
       <c r="R6">
-        <v>-90.00018015082523</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S6">
-        <v>89.9998199546464</v>
+        <v>150.1084432954927</v>
       </c>
     </row>
   </sheetData>
@@ -4937,22 +4937,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000905982286275</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001031757149481</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96174312501411</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.025771053398</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4996,22 +4996,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999318304864</v>
+        <v>1.004548863305841</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P3">
-        <v>0.5000000057171472</v>
+        <v>1.004874511687163</v>
       </c>
       <c r="Q3">
-        <v>89.99981738844809</v>
+        <v>29.82880539551649</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>89.99981747050904</v>
+        <v>150.1388271581068</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5055,22 +5055,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.499999931816435</v>
+        <v>1.004554117106339</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476337</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P4">
-        <v>0.5000000057311986</v>
+        <v>1.007130219320831</v>
       </c>
       <c r="Q4">
-        <v>89.9998173911728</v>
+        <v>29.67989649146177</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>89.99981746778435</v>
+        <v>150.0639597130538</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.04502519190421558</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5199061333242685</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5096,40 +5096,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.323944613337517</v>
+        <v>5.324439521773636</v>
       </c>
       <c r="I5">
-        <v>-776.5083855046996</v>
+        <v>-776.5031878158039</v>
       </c>
       <c r="J5">
-        <v>9090950373.723551</v>
+        <v>2.112151900805881</v>
       </c>
       <c r="K5">
-        <v>53008.62128958106</v>
+        <v>3.596397547084729</v>
       </c>
       <c r="L5">
-        <v>9090949237.990337</v>
+        <v>2.112151900861503</v>
       </c>
       <c r="M5">
-        <v>-4927.235144376755</v>
+        <v>3.596397547088392</v>
       </c>
       <c r="N5">
-        <v>0.4999999317742816</v>
+        <v>1.00456615611509</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476337</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P5">
-        <v>0.5000000057733521</v>
+        <v>1.009387638863332</v>
       </c>
       <c r="Q5">
-        <v>89.9998173993469</v>
+        <v>29.53099015075243</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>89.99981745961026</v>
+        <v>149.9894270120533</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5173,22 +5173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999318304864</v>
+        <v>1.004554117106123</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476337</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P6">
-        <v>0.5000000057171473</v>
+        <v>1.007130219320653</v>
       </c>
       <c r="Q6">
-        <v>89.99981738844811</v>
+        <v>29.67989649146629</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>89.99981747050904</v>
+        <v>150.0639597130455</v>
       </c>
     </row>
   </sheetData>
@@ -5304,22 +5304,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000905982286275</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001031757149481</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.96174312501411</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.025771053398</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5363,22 +5363,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999318304864</v>
+        <v>1.004548863305841</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476335</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P3">
-        <v>0.5000000057171472</v>
+        <v>1.004874511687163</v>
       </c>
       <c r="Q3">
-        <v>89.99981738844809</v>
+        <v>29.82880539551649</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S3">
-        <v>89.99981747050904</v>
+        <v>150.1388271581068</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5422,22 +5422,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.499999931816435</v>
+        <v>1.004554117106339</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476337</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P4">
-        <v>0.5000000057311986</v>
+        <v>1.007130219320831</v>
       </c>
       <c r="Q4">
-        <v>89.9998173911728</v>
+        <v>29.67989649146177</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S4">
-        <v>89.99981746778435</v>
+        <v>150.0639597130538</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,7 +5445,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.04502519190421558</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5199061333242685</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5463,40 +5463,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.323944613337517</v>
+        <v>5.324439521773636</v>
       </c>
       <c r="I5">
-        <v>-776.5083855046996</v>
+        <v>-776.5031878158039</v>
       </c>
       <c r="J5">
-        <v>9090950373.723551</v>
+        <v>2.112151900805881</v>
       </c>
       <c r="K5">
-        <v>53008.62128958106</v>
+        <v>3.596397547084729</v>
       </c>
       <c r="L5">
-        <v>9090949237.990337</v>
+        <v>2.112151900861503</v>
       </c>
       <c r="M5">
-        <v>-4927.235144376755</v>
+        <v>3.596397547088392</v>
       </c>
       <c r="N5">
-        <v>0.4999999317742816</v>
+        <v>1.00456615611509</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476337</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P5">
-        <v>0.5000000057733521</v>
+        <v>1.009387638863332</v>
       </c>
       <c r="Q5">
-        <v>89.9998173993469</v>
+        <v>29.53099015075243</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>89.99981745961026</v>
+        <v>149.9894270120533</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5540,22 +5540,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999318304864</v>
+        <v>1.004554117106123</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476337</v>
+        <v>0.9999999999999503</v>
       </c>
       <c r="P6">
-        <v>0.5000000057171473</v>
+        <v>1.007130219320653</v>
       </c>
       <c r="Q6">
-        <v>89.99981738844811</v>
+        <v>29.67989649146629</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051413</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>89.99981747050904</v>
+        <v>150.0639597130455</v>
       </c>
     </row>
   </sheetData>
@@ -5671,22 +5671,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000909702924338</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001060813381252</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.95994455846194</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0250544434831</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5730,22 +5730,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999325449515</v>
+        <v>1.004575095906629</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P3">
-        <v>0.5000000050026846</v>
+        <v>1.005017947102813</v>
       </c>
       <c r="Q3">
-        <v>89.99981730657598</v>
+        <v>29.82020362110735</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>89.99981755238147</v>
+        <v>150.1357784692413</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5789,22 +5789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999999325309001</v>
+        <v>1.004527366633929</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P4">
-        <v>0.500000005016736</v>
+        <v>1.007290165662492</v>
       </c>
       <c r="Q4">
-        <v>89.99981730930068</v>
+        <v>29.66842629191348</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>89.9998175496568</v>
+        <v>150.0568604697633</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,7 +5812,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.04589978607227326</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5300050768914641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5830,40 +5830,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.323944613337517</v>
+        <v>5.324439521773636</v>
       </c>
       <c r="I5">
-        <v>-776.5083855046996</v>
+        <v>-776.5031878158039</v>
       </c>
       <c r="J5">
-        <v>9090950373.723551</v>
+        <v>2.112151900805881</v>
       </c>
       <c r="K5">
-        <v>53008.62128958106</v>
+        <v>3.596397547084729</v>
       </c>
       <c r="L5">
-        <v>9090949237.990337</v>
+        <v>2.112151900861503</v>
       </c>
       <c r="M5">
-        <v>-4927.235144376755</v>
+        <v>3.596397547088392</v>
       </c>
       <c r="N5">
-        <v>0.4999999324887466</v>
+        <v>1.004486687048308</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P5">
-        <v>0.5000000050588896</v>
+        <v>1.009564286621689</v>
       </c>
       <c r="Q5">
-        <v>89.99981731747479</v>
+        <v>29.5166356041538</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>89.99981754148268</v>
+        <v>149.9782978595028</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5907,22 +5907,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999325449514</v>
+        <v>1.00452736663371</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P6">
-        <v>0.5000000050026847</v>
+        <v>1.007290165662308</v>
       </c>
       <c r="Q6">
-        <v>89.99981730657598</v>
+        <v>29.66842629191833</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>89.99981755238147</v>
+        <v>150.056860469755</v>
       </c>
     </row>
   </sheetData>
@@ -6038,22 +6038,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.000909702924338</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>1.001060813381252</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>29.95994455846194</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.0250544434831</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6097,22 +6097,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4999999325449515</v>
+        <v>1.004575095906629</v>
       </c>
       <c r="O3">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P3">
-        <v>0.5000000050026846</v>
+        <v>1.005017947102813</v>
       </c>
       <c r="Q3">
-        <v>89.99981730657598</v>
+        <v>29.82020362110735</v>
       </c>
       <c r="R3">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>89.99981755238147</v>
+        <v>150.1357784692413</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6156,22 +6156,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4999999325309001</v>
+        <v>1.004527366633929</v>
       </c>
       <c r="O4">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P4">
-        <v>0.500000005016736</v>
+        <v>1.007290165662492</v>
       </c>
       <c r="Q4">
-        <v>89.99981730930068</v>
+        <v>29.66842629191348</v>
       </c>
       <c r="R4">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>89.9998175496568</v>
+        <v>150.0568604697633</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,7 +6179,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.04589978607227326</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5300050768914641</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6197,40 +6197,40 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5.323944613337517</v>
+        <v>5.324439521773636</v>
       </c>
       <c r="I5">
-        <v>-776.5083855046996</v>
+        <v>-776.5031878158039</v>
       </c>
       <c r="J5">
-        <v>9090950373.723551</v>
+        <v>2.112151900805881</v>
       </c>
       <c r="K5">
-        <v>53008.62128958106</v>
+        <v>3.596397547084729</v>
       </c>
       <c r="L5">
-        <v>9090949237.990337</v>
+        <v>2.112151900861503</v>
       </c>
       <c r="M5">
-        <v>-4927.235144376755</v>
+        <v>3.596397547088392</v>
       </c>
       <c r="N5">
-        <v>0.4999999324887466</v>
+        <v>1.004486687048308</v>
       </c>
       <c r="O5">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P5">
-        <v>0.5000000050588896</v>
+        <v>1.009564286621689</v>
       </c>
       <c r="Q5">
-        <v>89.99981731747479</v>
+        <v>29.5166356041538</v>
       </c>
       <c r="R5">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>89.99981754148268</v>
+        <v>149.9782978595028</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6274,22 +6274,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4999999325449514</v>
+        <v>1.00452736663371</v>
       </c>
       <c r="O6">
-        <v>0.9999999375476362</v>
+        <v>0.9999999999999509</v>
       </c>
       <c r="P6">
-        <v>0.5000000050026847</v>
+        <v>1.007290165662308</v>
       </c>
       <c r="Q6">
-        <v>89.99981730657598</v>
+        <v>29.66842629191833</v>
       </c>
       <c r="R6">
-        <v>-90.00018257051396</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>89.99981755238147</v>
+        <v>150.056860469755</v>
       </c>
     </row>
   </sheetData>
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.082240238542984</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9717494206873132</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056849072091871</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.66244134923578</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.68229557616587</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.6408046479729</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6464,22 +6464,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.496868057792797E-06</v>
+        <v>1.068919939978527</v>
       </c>
       <c r="O3">
-        <v>7.416834242014513E-06</v>
+        <v>0.4711324625044895</v>
       </c>
       <c r="P3">
-        <v>6.469928194407678E-06</v>
+        <v>0.8881463395482484</v>
       </c>
       <c r="Q3">
-        <v>-62.04941366835193</v>
+        <v>11.68435645850493</v>
       </c>
       <c r="R3">
-        <v>164.0729707800576</v>
+        <v>-113.1797985005392</v>
       </c>
       <c r="S3">
-        <v>-6.327087188658616</v>
+        <v>165.8829357023935</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6523,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.496886456686458E-06</v>
+        <v>1.006567663354133</v>
       </c>
       <c r="O4">
-        <v>7.416855720923996E-06</v>
+        <v>0.2355662312557089</v>
       </c>
       <c r="P4">
-        <v>6.469949766565452E-06</v>
+        <v>0.9145259034337347</v>
       </c>
       <c r="Q4">
-        <v>-62.04999093743873</v>
+        <v>6.152633569628714</v>
       </c>
       <c r="R4">
-        <v>164.0728917638906</v>
+        <v>-113.179798495785</v>
       </c>
       <c r="S4">
-        <v>-6.326998366626521</v>
+        <v>173.175701750298</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6549,55 +6549,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.999235549697549</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.991449176659221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>34.6321890396195</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.54227974822572</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>1.496941654065533E-06</v>
+        <v>0.9547698161790443</v>
       </c>
       <c r="O5">
-        <v>7.416920157772258E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.470014483652521E-06</v>
+        <v>0.9547698161809345</v>
       </c>
       <c r="Q5">
-        <v>-62.05172267743746</v>
+        <v>-0.04289947899813053</v>
       </c>
       <c r="R5">
-        <v>164.0726547171831</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-6.326731904445253</v>
+        <v>179.9571005210247</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6641,22 +6641,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.496868057987986E-06</v>
+        <v>1.00656766334691</v>
       </c>
       <c r="O6">
-        <v>7.416834242102462E-06</v>
+        <v>0.2355662312597752</v>
       </c>
       <c r="P6">
-        <v>6.469928194358686E-06</v>
+        <v>0.9145259034421415</v>
       </c>
       <c r="Q6">
-        <v>-62.0494136695387</v>
+        <v>6.152633569990267</v>
       </c>
       <c r="R6">
-        <v>164.0729707776768</v>
+        <v>-113.1797984912181</v>
       </c>
       <c r="S6">
-        <v>-6.32708718989657</v>
+        <v>173.1757017500085</v>
       </c>
     </row>
   </sheetData>
@@ -6772,22 +6772,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.082240238542984</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9717494206873132</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056849072091871</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.66244134923578</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.68229557616587</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.6408046479729</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6831,22 +6831,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.496868057792797E-06</v>
+        <v>1.068919939978527</v>
       </c>
       <c r="O3">
-        <v>7.416834242014513E-06</v>
+        <v>0.4711324625044895</v>
       </c>
       <c r="P3">
-        <v>6.469928194407678E-06</v>
+        <v>0.8881463395482484</v>
       </c>
       <c r="Q3">
-        <v>-62.04941366835193</v>
+        <v>11.68435645850493</v>
       </c>
       <c r="R3">
-        <v>164.0729707800576</v>
+        <v>-113.1797985005392</v>
       </c>
       <c r="S3">
-        <v>-6.327087188658616</v>
+        <v>165.8829357023935</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6890,22 +6890,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.496886456686458E-06</v>
+        <v>1.006567663354133</v>
       </c>
       <c r="O4">
-        <v>7.416855720923996E-06</v>
+        <v>0.2355662312557089</v>
       </c>
       <c r="P4">
-        <v>6.469949766565452E-06</v>
+        <v>0.9145259034337347</v>
       </c>
       <c r="Q4">
-        <v>-62.04999093743873</v>
+        <v>6.152633569628714</v>
       </c>
       <c r="R4">
-        <v>164.0728917638906</v>
+        <v>-113.179798495785</v>
       </c>
       <c r="S4">
-        <v>-6.326998366626521</v>
+        <v>173.175701750298</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6916,55 +6916,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.999235549697549</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.991449176659221</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>34.6321890396195</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.54227974822572</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>1.496941654065533E-06</v>
+        <v>0.9547698161790443</v>
       </c>
       <c r="O5">
-        <v>7.416920157772258E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6.470014483652521E-06</v>
+        <v>0.9547698161809345</v>
       </c>
       <c r="Q5">
-        <v>-62.05172267743746</v>
+        <v>-0.04289947899813053</v>
       </c>
       <c r="R5">
-        <v>164.0726547171831</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-6.326731904445253</v>
+        <v>179.9571005210247</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7008,22 +7008,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.496868057987986E-06</v>
+        <v>1.00656766334691</v>
       </c>
       <c r="O6">
-        <v>7.416834242102462E-06</v>
+        <v>0.2355662312597752</v>
       </c>
       <c r="P6">
-        <v>6.469928194358686E-06</v>
+        <v>0.9145259034421415</v>
       </c>
       <c r="Q6">
-        <v>-62.0494136695387</v>
+        <v>6.152633569990267</v>
       </c>
       <c r="R6">
-        <v>164.0729707776768</v>
+        <v>-113.1797984912181</v>
       </c>
       <c r="S6">
-        <v>-6.32708718989657</v>
+        <v>173.1757017500085</v>
       </c>
     </row>
   </sheetData>
@@ -7139,22 +7139,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100547090126067</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.06034412015089</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.080275509299944</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.78937675528754</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.25541415425401</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6143351262002</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7198,22 +7198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.495808628301213E-06</v>
+        <v>1.114736126984272</v>
       </c>
       <c r="O3">
-        <v>7.416086447663477E-06</v>
+        <v>0.9069449605547375</v>
       </c>
       <c r="P3">
-        <v>6.468205339812356E-06</v>
+        <v>0.994534186176686</v>
       </c>
       <c r="Q3">
-        <v>-61.97281383130582</v>
+        <v>23.72360435997035</v>
       </c>
       <c r="R3">
-        <v>164.0761828473153</v>
+        <v>-98.42976487996312</v>
       </c>
       <c r="S3">
-        <v>-6.340092327740861</v>
+        <v>153.1840372632522</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7257,22 +7257,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.495827006989621E-06</v>
+        <v>1.095407723336753</v>
       </c>
       <c r="O4">
-        <v>7.416107926087611E-06</v>
+        <v>0.8245251458989559</v>
       </c>
       <c r="P4">
-        <v>6.468226909749577E-06</v>
+        <v>0.9807363386629886</v>
       </c>
       <c r="Q4">
-        <v>-61.97339244760497</v>
+        <v>21.81562585203372</v>
       </c>
       <c r="R4">
-        <v>164.0761038151021</v>
+        <v>-98.72515785571737</v>
       </c>
       <c r="S4">
-        <v>-6.340003438051372</v>
+        <v>155.4228098628771</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7283,55 +7283,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.057003701297268</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.042157250224911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.20522742956816</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.03379537910546</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>1.495882143748785E-06</v>
+        <v>1.077336829740252</v>
       </c>
       <c r="O5">
-        <v>7.416172361197944E-06</v>
+        <v>0.742132114631417</v>
       </c>
       <c r="P5">
-        <v>6.468291620068912E-06</v>
+        <v>0.9684771671196992</v>
       </c>
       <c r="Q5">
-        <v>-61.97512824005651</v>
+        <v>19.84138688329423</v>
       </c>
       <c r="R5">
-        <v>164.0758667170605</v>
+        <v>-99.08615255181714</v>
       </c>
       <c r="S5">
-        <v>-6.339736774716948</v>
+        <v>157.7218488886721</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7375,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495808628383302E-06</v>
+        <v>1.095407723334118</v>
       </c>
       <c r="O6">
-        <v>7.416086447821929E-06</v>
+        <v>0.8245251459000057</v>
       </c>
       <c r="P6">
-        <v>6.468205339883718E-06</v>
+        <v>0.98073633866631</v>
       </c>
       <c r="Q6">
-        <v>-61.97281383019818</v>
+        <v>21.81562585214524</v>
       </c>
       <c r="R6">
-        <v>164.0761828466346</v>
+        <v>-98.72515785525532</v>
       </c>
       <c r="S6">
-        <v>-6.34009232828847</v>
+        <v>155.4228098628986</v>
       </c>
     </row>
   </sheetData>
@@ -7506,22 +7506,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.100547090126067</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>1.06034412015089</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.080275509299944</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>28.78937675528754</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.25541415425401</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.6143351262002</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7565,22 +7565,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.495808628301213E-06</v>
+        <v>1.114736126984272</v>
       </c>
       <c r="O3">
-        <v>7.416086447663477E-06</v>
+        <v>0.9069449605547375</v>
       </c>
       <c r="P3">
-        <v>6.468205339812356E-06</v>
+        <v>0.994534186176686</v>
       </c>
       <c r="Q3">
-        <v>-61.97281383130582</v>
+        <v>23.72360435997035</v>
       </c>
       <c r="R3">
-        <v>164.0761828473153</v>
+        <v>-98.42976487996312</v>
       </c>
       <c r="S3">
-        <v>-6.340092327740861</v>
+        <v>153.1840372632522</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7624,22 +7624,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.495827006989621E-06</v>
+        <v>1.095407723336753</v>
       </c>
       <c r="O4">
-        <v>7.416107926087611E-06</v>
+        <v>0.8245251458989559</v>
       </c>
       <c r="P4">
-        <v>6.468226909749577E-06</v>
+        <v>0.9807363386629886</v>
       </c>
       <c r="Q4">
-        <v>-61.97339244760497</v>
+        <v>21.81562585203372</v>
       </c>
       <c r="R4">
-        <v>164.0761038151021</v>
+        <v>-98.72515785571737</v>
       </c>
       <c r="S4">
-        <v>-6.340003438051372</v>
+        <v>155.4228098628771</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7650,55 +7650,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.057003701297268</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.042157250224911</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12.20522742956816</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.03379537910546</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>1.495882143748785E-06</v>
+        <v>1.077336829740252</v>
       </c>
       <c r="O5">
-        <v>7.416172361197944E-06</v>
+        <v>0.742132114631417</v>
       </c>
       <c r="P5">
-        <v>6.468291620068912E-06</v>
+        <v>0.9684771671196992</v>
       </c>
       <c r="Q5">
-        <v>-61.97512824005651</v>
+        <v>19.84138688329423</v>
       </c>
       <c r="R5">
-        <v>164.0758667170605</v>
+        <v>-99.08615255181714</v>
       </c>
       <c r="S5">
-        <v>-6.339736774716948</v>
+        <v>157.7218488886721</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7742,22 +7742,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.495808628383302E-06</v>
+        <v>1.095407723334118</v>
       </c>
       <c r="O6">
-        <v>7.416086447821929E-06</v>
+        <v>0.8245251459000057</v>
       </c>
       <c r="P6">
-        <v>6.468205339883718E-06</v>
+        <v>0.98073633866631</v>
       </c>
       <c r="Q6">
-        <v>-61.97281383019818</v>
+        <v>21.81562585214524</v>
       </c>
       <c r="R6">
-        <v>164.0761828466346</v>
+        <v>-98.72515785525532</v>
       </c>
       <c r="S6">
-        <v>-6.34009232828847</v>
+        <v>155.4228098628986</v>
       </c>
     </row>
   </sheetData>
@@ -7873,22 +7873,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9965033660471775</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8925077601169311</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9519604486525675</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.55667171528258</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.21942694842227</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.0912134143289</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7932,22 +7932,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.129978173368357E-06</v>
+        <v>1.031223257928875</v>
       </c>
       <c r="O3">
-        <v>6.863489856798132E-06</v>
+        <v>0.5561090193399357</v>
       </c>
       <c r="P3">
-        <v>1.341880733472347E-06</v>
+        <v>0.7719374276162474</v>
       </c>
       <c r="Q3">
-        <v>-73.91406436759415</v>
+        <v>13.6370030847921</v>
       </c>
       <c r="R3">
-        <v>95.29835557964034</v>
+        <v>-118.9936572386295</v>
       </c>
       <c r="S3">
-        <v>179.2888451647504</v>
+        <v>161.6296309854953</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7991,22 +7991,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.130000524775416E-06</v>
+        <v>0.9428807941516508</v>
       </c>
       <c r="O4">
-        <v>6.863518693817521E-06</v>
+        <v>0.2780545096809295</v>
       </c>
       <c r="P4">
-        <v>1.341848850073744E-06</v>
+        <v>0.8095938985875636</v>
       </c>
       <c r="Q4">
-        <v>-73.9142471721987</v>
+        <v>7.371092097099612</v>
       </c>
       <c r="R4">
-        <v>95.29846928091946</v>
+        <v>-118.9936572335589</v>
       </c>
       <c r="S4">
-        <v>179.2888144590183</v>
+        <v>171.3157565119425</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8017,55 +8017,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.403402320961705</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.391922130020624</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27.75209953956424</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>27.61953771296061</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>7.130067578708363E-06</v>
+        <v>0.8680265365349578</v>
       </c>
       <c r="O5">
-        <v>6.863605205072083E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.341753199424198E-06</v>
+        <v>0.8680265365354277</v>
       </c>
       <c r="Q5">
-        <v>-73.91479558389156</v>
+        <v>-0.07901286990596934</v>
       </c>
       <c r="R5">
-        <v>95.29881037631091</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.2887223582553</v>
+        <v>179.9209871297008</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8109,22 +8109,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.12997817347855E-06</v>
+        <v>0.9428807941448626</v>
       </c>
       <c r="O6">
-        <v>6.863489856804051E-06</v>
+        <v>0.2780545096894459</v>
       </c>
       <c r="P6">
-        <v>1.341880733409676E-06</v>
+        <v>0.8095938985968112</v>
       </c>
       <c r="Q6">
-        <v>-73.91406436784949</v>
+        <v>7.371092097721966</v>
       </c>
       <c r="R6">
-        <v>95.29835558017315</v>
+        <v>-118.9936572288219</v>
       </c>
       <c r="S6">
-        <v>179.2888451598201</v>
+        <v>171.3157565113762</v>
       </c>
     </row>
   </sheetData>
@@ -8391,22 +8391,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9965033660471775</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8925077601169311</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9519604486525675</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>26.55667171528258</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-93.21942694842227</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.0912134143289</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.129978173368357E-06</v>
+        <v>1.031223257928875</v>
       </c>
       <c r="O3">
-        <v>6.863489856798132E-06</v>
+        <v>0.5561090193399357</v>
       </c>
       <c r="P3">
-        <v>1.341880733472347E-06</v>
+        <v>0.7719374276162474</v>
       </c>
       <c r="Q3">
-        <v>-73.91406436759415</v>
+        <v>13.6370030847921</v>
       </c>
       <c r="R3">
-        <v>95.29835557964034</v>
+        <v>-118.9936572386295</v>
       </c>
       <c r="S3">
-        <v>179.2888451647504</v>
+        <v>161.6296309854953</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8509,22 +8509,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.130000524775416E-06</v>
+        <v>0.9428807941516508</v>
       </c>
       <c r="O4">
-        <v>6.863518693817521E-06</v>
+        <v>0.2780545096809295</v>
       </c>
       <c r="P4">
-        <v>1.341848850073744E-06</v>
+        <v>0.8095938985875636</v>
       </c>
       <c r="Q4">
-        <v>-73.9142471721987</v>
+        <v>7.371092097099612</v>
       </c>
       <c r="R4">
-        <v>95.29846928091946</v>
+        <v>-118.9936572335589</v>
       </c>
       <c r="S4">
-        <v>179.2888144590183</v>
+        <v>171.3157565119425</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8535,55 +8535,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.403402320961705</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.391922130020624</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27.75209953956424</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>27.61953771296061</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>7.130067578708363E-06</v>
+        <v>0.8680265365349578</v>
       </c>
       <c r="O5">
-        <v>6.863605205072083E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.341753199424198E-06</v>
+        <v>0.8680265365354277</v>
       </c>
       <c r="Q5">
-        <v>-73.91479558389156</v>
+        <v>-0.07901286990596934</v>
       </c>
       <c r="R5">
-        <v>95.29881037631091</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>179.2887223582553</v>
+        <v>179.9209871297008</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8627,22 +8627,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.12997817347855E-06</v>
+        <v>0.9428807941448626</v>
       </c>
       <c r="O6">
-        <v>6.863489856804051E-06</v>
+        <v>0.2780545096894459</v>
       </c>
       <c r="P6">
-        <v>1.341880733409676E-06</v>
+        <v>0.8095938985968112</v>
       </c>
       <c r="Q6">
-        <v>-73.91406436784949</v>
+        <v>7.371092097721966</v>
       </c>
       <c r="R6">
-        <v>95.29835558017315</v>
+        <v>-118.9936572288219</v>
       </c>
       <c r="S6">
-        <v>179.2888451598201</v>
+        <v>171.3157565113762</v>
       </c>
     </row>
   </sheetData>
@@ -8758,22 +8758,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.002000106220416</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9631240430161802</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9801890393086772</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.71191419839985</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.48679392927977</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.5829185503633</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.128660858223645E-06</v>
+        <v>1.019877979646727</v>
       </c>
       <c r="O3">
-        <v>6.862891420517909E-06</v>
+        <v>0.8367132283541724</v>
       </c>
       <c r="P3">
-        <v>1.343570733678135E-06</v>
+        <v>0.9025607676041131</v>
       </c>
       <c r="Q3">
-        <v>-73.90135819435578</v>
+        <v>23.89902507479789</v>
       </c>
       <c r="R3">
-        <v>95.29420747137284</v>
+        <v>-98.94474932053133</v>
       </c>
       <c r="S3">
-        <v>179.3389515077824</v>
+        <v>152.7428887661736</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8876,22 +8876,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.12868320470783E-06</v>
+        <v>0.9847675723585235</v>
       </c>
       <c r="O4">
-        <v>6.862920256739655E-06</v>
+        <v>0.734897727173808</v>
       </c>
       <c r="P4">
-        <v>1.343538849694125E-06</v>
+        <v>0.8978381575249481</v>
       </c>
       <c r="Q4">
-        <v>-73.90154107285979</v>
+        <v>21.67504640367181</v>
       </c>
       <c r="R4">
-        <v>95.29432119958145</v>
+        <v>-97.41604264393506</v>
       </c>
       <c r="S4">
-        <v>179.3389220325347</v>
+        <v>156.01043678221</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8902,55 +8902,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9036818713372931</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8889813757894409</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.43481943356742</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.26507273233195</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>7.128750243470473E-06</v>
+        <v>0.9512490537776285</v>
       </c>
       <c r="O5">
-        <v>6.863006765035822E-06</v>
+        <v>0.6337732350776828</v>
       </c>
       <c r="P5">
-        <v>1.343443197290206E-06</v>
+        <v>0.8960608663302693</v>
       </c>
       <c r="Q5">
-        <v>-73.90208970451175</v>
+        <v>19.29052673049834</v>
       </c>
       <c r="R5">
-        <v>95.29466237700315</v>
+        <v>-95.39765209810874</v>
       </c>
       <c r="S5">
-        <v>179.3388336179881</v>
+        <v>159.3017131494844</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8994,22 +8994,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.128660858412352E-06</v>
+        <v>0.9847675723563032</v>
       </c>
       <c r="O6">
-        <v>6.862891420651474E-06</v>
+        <v>0.7348977271787627</v>
       </c>
       <c r="P6">
-        <v>1.343570733678709E-06</v>
+        <v>0.8978381575293011</v>
       </c>
       <c r="Q6">
-        <v>-73.9013581942573</v>
+        <v>21.67504640390753</v>
       </c>
       <c r="R6">
-        <v>95.29420747180694</v>
+        <v>-97.41604264333399</v>
       </c>
       <c r="S6">
-        <v>179.3389515056626</v>
+        <v>156.0104367821266</v>
       </c>
     </row>
   </sheetData>
@@ -9125,22 +9125,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>1.002000106220416</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9631240430161802</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9801890393086772</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999878</v>
+        <v>28.71191419839985</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.48679392927977</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>150.5829185503633</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9184,22 +9184,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>7.128660858223645E-06</v>
+        <v>1.019877979646727</v>
       </c>
       <c r="O3">
-        <v>6.862891420517909E-06</v>
+        <v>0.8367132283541724</v>
       </c>
       <c r="P3">
-        <v>1.343570733678135E-06</v>
+        <v>0.9025607676041131</v>
       </c>
       <c r="Q3">
-        <v>-73.90135819435578</v>
+        <v>23.89902507479789</v>
       </c>
       <c r="R3">
-        <v>95.29420747137284</v>
+        <v>-98.94474932053133</v>
       </c>
       <c r="S3">
-        <v>179.3389515077824</v>
+        <v>152.7428887661736</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9243,22 +9243,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>7.12868320470783E-06</v>
+        <v>0.9847675723585235</v>
       </c>
       <c r="O4">
-        <v>6.862920256739655E-06</v>
+        <v>0.734897727173808</v>
       </c>
       <c r="P4">
-        <v>1.343538849694125E-06</v>
+        <v>0.8978381575249481</v>
       </c>
       <c r="Q4">
-        <v>-73.90154107285979</v>
+        <v>21.67504640367181</v>
       </c>
       <c r="R4">
-        <v>95.29432119958145</v>
+        <v>-97.41604264393506</v>
       </c>
       <c r="S4">
-        <v>179.3389220325347</v>
+        <v>156.01043678221</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9269,55 +9269,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.9036818713372931</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.8889813757894409</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10.43481943356742</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.26507273233195</v>
       </c>
       <c r="H5">
-        <v>5.323656275868416</v>
+        <v>5.324439521774553</v>
       </c>
       <c r="I5">
-        <v>-776.4968823834121</v>
+        <v>-776.5031878158024</v>
       </c>
       <c r="J5">
-        <v>9090873877.686028</v>
+        <v>2.112151900904571</v>
       </c>
       <c r="K5">
-        <v>16057.98560008407</v>
+        <v>3.596397547187986</v>
       </c>
       <c r="L5">
-        <v>9090893234.137815</v>
+        <v>2.112151900845745</v>
       </c>
       <c r="M5">
-        <v>-14505.73126450181</v>
+        <v>3.596397547096951</v>
       </c>
       <c r="N5">
-        <v>7.128750243470473E-06</v>
+        <v>0.9512490537776285</v>
       </c>
       <c r="O5">
-        <v>6.863006765035822E-06</v>
+        <v>0.6337732350776828</v>
       </c>
       <c r="P5">
-        <v>1.343443197290206E-06</v>
+        <v>0.8960608663302693</v>
       </c>
       <c r="Q5">
-        <v>-73.90208970451175</v>
+        <v>19.29052673049834</v>
       </c>
       <c r="R5">
-        <v>95.29466237700315</v>
+        <v>-95.39765209810874</v>
       </c>
       <c r="S5">
-        <v>179.3388336179881</v>
+        <v>159.3017131494844</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9361,22 +9361,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>7.128660858412352E-06</v>
+        <v>0.9847675723563032</v>
       </c>
       <c r="O6">
-        <v>6.862891420651474E-06</v>
+        <v>0.7348977271787627</v>
       </c>
       <c r="P6">
-        <v>1.343570733678709E-06</v>
+        <v>0.8978381575293011</v>
       </c>
       <c r="Q6">
-        <v>-73.9013581942573</v>
+        <v>21.67504640390753</v>
       </c>
       <c r="R6">
-        <v>95.29420747180694</v>
+        <v>-97.41604264333399</v>
       </c>
       <c r="S6">
-        <v>179.3389515056626</v>
+        <v>156.0104367821266</v>
       </c>
     </row>
   </sheetData>
@@ -10247,22 +10247,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.100000023841858</v>
+        <v>1.082012411476414</v>
       </c>
       <c r="O2">
-        <v>1.100000023841858</v>
+        <v>0.9717494206873249</v>
       </c>
       <c r="P2">
-        <v>1.100000023841858</v>
+        <v>1.056597221450648</v>
       </c>
       <c r="Q2">
-        <v>29.99999999999879</v>
+        <v>26.67016311516075</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-91.68229557616606</v>
       </c>
       <c r="S2">
-        <v>149.9999999999939</v>
+        <v>152.6354521266393</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10306,22 +10306,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.952631548051342</v>
+        <v>1.067545155014024</v>
       </c>
       <c r="O3">
-        <v>7.416816313984696E-06</v>
+        <v>0.4711324625045243</v>
       </c>
       <c r="P3">
-        <v>0.9526244159516865</v>
+        <v>0.8867526821368239</v>
       </c>
       <c r="Q3">
-        <v>-1.568679042739308E-06</v>
+        <v>11.70358232174643</v>
       </c>
       <c r="R3">
-        <v>164.0730406511418</v>
+        <v>-113.1797985005417</v>
       </c>
       <c r="S3">
-        <v>-179.9998791575</v>
+        <v>165.8651090976159</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10365,22 +10365,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526315480602657</v>
+        <v>1.004840030213501</v>
       </c>
       <c r="O4">
-        <v>7.416837792952212E-06</v>
+        <v>0.2355662312557468</v>
       </c>
       <c r="P4">
-        <v>0.9526244159427627</v>
+        <v>0.9127115190423145</v>
       </c>
       <c r="Q4">
-        <v>-1.569152070094977E-06</v>
+        <v>6.185827764751275</v>
       </c>
       <c r="R4">
-        <v>164.0729616362817</v>
+        <v>-113.1797984957915</v>
       </c>
       <c r="S4">
-        <v>-179.999879157027</v>
+        <v>173.1869568170009</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10391,55 +10391,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.995319656322863</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.995319656322863</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>34.58697219773964</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.58697219773964</v>
       </c>
       <c r="H5">
-        <v>2.778493613004684</v>
+        <v>2.773381116452733</v>
       </c>
       <c r="I5">
-        <v>-776.4949352244713</v>
+        <v>-776.4976134308072</v>
       </c>
       <c r="J5">
-        <v>9090868936.645273</v>
+        <v>1.147731927204384</v>
       </c>
       <c r="K5">
-        <v>-47202.49366387726</v>
+        <v>3.488438701481386</v>
       </c>
       <c r="L5">
-        <v>9090937109.704132</v>
+        <v>1.147731927165589</v>
       </c>
       <c r="M5">
-        <v>-60387.33950108291</v>
+        <v>3.488438701425397</v>
       </c>
       <c r="N5">
-        <v>0.9526315480870373</v>
+        <v>0.9526279648043275</v>
       </c>
       <c r="O5">
-        <v>7.416902229939246E-06</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526244159159913</v>
+        <v>0.9526279648061713</v>
       </c>
       <c r="Q5">
-        <v>-1.570571178407137E-06</v>
+        <v>-1.474211006865218E-11</v>
       </c>
       <c r="R5">
-        <v>164.0727245908423</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9998791556078</v>
+        <v>-179.9999999999788</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10483,22 +10483,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952631548051342</v>
+        <v>1.004840030206316</v>
       </c>
       <c r="O6">
-        <v>7.416816314037465E-06</v>
+        <v>0.2355662312598132</v>
       </c>
       <c r="P6">
-        <v>0.9526244159516866</v>
+        <v>0.9127115190507494</v>
       </c>
       <c r="Q6">
-        <v>-1.568679044729985E-06</v>
+        <v>6.185827765114817</v>
       </c>
       <c r="R6">
-        <v>164.0730406497134</v>
+        <v>-113.1797984912246</v>
       </c>
       <c r="S6">
-        <v>-179.9998791575</v>
+        <v>173.1869568167123</v>
       </c>
     </row>
   </sheetData>
